--- a/testdata/hostinfos_template.xlsx
+++ b/testdata/hostinfos_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvyong/Documents/01Code/01BJCA/footstone/ops-ump/apiserver/jsfile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingoobjca/github/xlsx/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569D062C-52D2-7740-82E6-A170B8903404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCB69BD-9CC7-0F42-9A7D-F42A6C9A0908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1860" windowWidth="28240" windowHeight="17440" xr2:uid="{7F952744-134A-AD49-968D-64331F1608E2}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -446,48 +440,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F923ADA4-2E13-D844-93C3-6510E24051E6}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="B1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="5" width="28.83203125" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="6" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:7" ht="18">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="1"/>
+    <row r="2" spans="2:7" ht="18">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
